--- a/Assets/ExcelDatas/CharacterData.xlsx
+++ b/Assets/ExcelDatas/CharacterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{BD3F6888-DEB1-4A79-ABC4-3D758F3543BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DE36F37-9E57-4479-8A01-1BECD7026EA1}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{BD3F6888-DEB1-4A79-ABC4-3D758F3543BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95B2A3F5-0E5F-494D-92A8-4540C86EBD13}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
@@ -86,15 +86,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Spum&gt;Spum_Units&gt;Character_Main_Hero1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>루비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerbleCharacter/Ruby</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -218,10 +218,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,7 +540,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -628,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.6">
@@ -668,7 +664,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -698,7 +694,7 @@
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/CharacterData.xlsx
+++ b/Assets/ExcelDatas/CharacterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{BD3F6888-DEB1-4A79-ABC4-3D758F3543BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95B2A3F5-0E5F-494D-92A8-4540C86EBD13}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1596D479-2278-4B59-96F0-CA07F1F31E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>PlayerbleCharacter/Ruby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -171,9 +175,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -181,10 +182,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -206,6 +204,40 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,20 +253,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}" name="표2" displayName="표2" ref="A3:K4" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}" name="표2" displayName="표2" ref="A3:K4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A3:K4" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{37C7C105-E27E-49AA-98C8-F599797BFDFA}" name="Name" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{117AF7E1-21A6-4426-8745-5287AFCE2ACC}" name="ID" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{109E1E6E-4C89-4DF6-881B-3A81934D9BB5}" name="AttackDamage"/>
-    <tableColumn id="3" xr3:uid="{BBCC0282-B5A9-4D25-8B29-EB6EDE9C1EC4}" name="AttackSpeed"/>
-    <tableColumn id="4" xr3:uid="{93962B0C-5FE3-4107-9B9F-D9CF519304A9}" name="Defence"/>
-    <tableColumn id="5" xr3:uid="{4D166232-357D-4EBE-86BB-48D7FF326B9F}" name="MoveSpeed"/>
-    <tableColumn id="6" xr3:uid="{35089020-614D-4902-B564-E6925801465A}" name="CriticalPercent"/>
-    <tableColumn id="7" xr3:uid="{F737CEF5-B367-4AFD-90DA-25D3DBCC841A}" name="CriticalDamage"/>
-    <tableColumn id="9" xr3:uid="{DC4E3845-0ED0-4615-BB45-F00B344AD551}" name="HP"/>
-    <tableColumn id="10" xr3:uid="{98302034-D0BF-4704-9CB5-915E7AB127AF}" name="MaxLV"/>
-    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab"/>
+    <tableColumn id="1" xr3:uid="{37C7C105-E27E-49AA-98C8-F599797BFDFA}" name="Name" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{117AF7E1-21A6-4426-8745-5287AFCE2ACC}" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{109E1E6E-4C89-4DF6-881B-3A81934D9BB5}" name="AttackDamage" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{BBCC0282-B5A9-4D25-8B29-EB6EDE9C1EC4}" name="AttackSpeed" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{93962B0C-5FE3-4107-9B9F-D9CF519304A9}" name="Defence" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4D166232-357D-4EBE-86BB-48D7FF326B9F}" name="MoveSpeed" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{35089020-614D-4902-B564-E6925801465A}" name="CriticalPercent" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{F737CEF5-B367-4AFD-90DA-25D3DBCC841A}" name="CriticalDamage" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{DC4E3845-0ED0-4615-BB45-F00B344AD551}" name="HP" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{98302034-D0BF-4704-9CB5-915E7AB127AF}" name="MaxLV" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -540,24 +572,25 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.8125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="3"/>
+    <col min="2" max="2" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.09765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -603,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -612,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>2</v>
@@ -627,81 +660,82 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>50</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="3">
         <v>1000</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1500</v>
-      </c>
-      <c r="I4">
-        <v>1000</v>
-      </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/ExcelDatas/CharacterData.xlsx
+++ b/Assets/ExcelDatas/CharacterData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1596D479-2278-4B59-96F0-CA07F1F31E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7073EDF-214C-4C4E-A182-A1FB75F92CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
+    <workbookView xWindow="30735" yWindow="2010" windowWidth="24495" windowHeight="11385" activeTab="1" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterTable" sheetId="1" r:id="rId1"/>
+    <sheet name="CharacterStatShop" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -99,6 +100,60 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 업그레이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESIGN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 업그레이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeStatType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;UpgradeStatType&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텟 타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPoint</t>
+  </si>
+  <si>
+    <t>AttackPoint = 공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefencePoint = 방어력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefencePoint</t>
+  </si>
+  <si>
+    <t>이넘 정해주세요..</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +237,28 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -239,6 +315,29 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -253,20 +352,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}" name="표2" displayName="표2" ref="A3:K4" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}" name="표2" displayName="표2" ref="A3:K4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A3:K4" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{37C7C105-E27E-49AA-98C8-F599797BFDFA}" name="Name" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{117AF7E1-21A6-4426-8745-5287AFCE2ACC}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{109E1E6E-4C89-4DF6-881B-3A81934D9BB5}" name="AttackDamage" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{BBCC0282-B5A9-4D25-8B29-EB6EDE9C1EC4}" name="AttackSpeed" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{93962B0C-5FE3-4107-9B9F-D9CF519304A9}" name="Defence" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{4D166232-357D-4EBE-86BB-48D7FF326B9F}" name="MoveSpeed" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{35089020-614D-4902-B564-E6925801465A}" name="CriticalPercent" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{F737CEF5-B367-4AFD-90DA-25D3DBCC841A}" name="CriticalDamage" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{DC4E3845-0ED0-4615-BB45-F00B344AD551}" name="HP" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{98302034-D0BF-4704-9CB5-915E7AB127AF}" name="MaxLV" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{37C7C105-E27E-49AA-98C8-F599797BFDFA}" name="Name" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{117AF7E1-21A6-4426-8745-5287AFCE2ACC}" name="ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{109E1E6E-4C89-4DF6-881B-3A81934D9BB5}" name="AttackDamage" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{BBCC0282-B5A9-4D25-8B29-EB6EDE9C1EC4}" name="AttackSpeed" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{93962B0C-5FE3-4107-9B9F-D9CF519304A9}" name="Defence" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{4D166232-357D-4EBE-86BB-48D7FF326B9F}" name="MoveSpeed" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{35089020-614D-4902-B564-E6925801465A}" name="CriticalPercent" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{F737CEF5-B367-4AFD-90DA-25D3DBCC841A}" name="CriticalDamage" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{DC4E3845-0ED0-4615-BB45-F00B344AD551}" name="HP" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{98302034-D0BF-4704-9CB5-915E7AB127AF}" name="MaxLV" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B784074-12A8-48A2-A822-F7B75B54D2CA}" name="표2_2" displayName="표2_2" ref="A3:G10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A3:G10" xr:uid="{9B784074-12A8-48A2-A822-F7B75B54D2CA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{ED4D281F-14C7-428C-95E7-5FA8F5994F81}" name="Name" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{7601506F-6BF0-47B4-AA04-BFFEDDDBECFA}" name="ID" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{43F40881-49B4-4463-9A12-14BD4390D989}" name="UpgradeStatType" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B780DC8A-64ED-4485-B07C-5DCADC47B51D}" name="Value" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E23E6074-77E5-4361-AA84-DF1569D359D8}" name="Level" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{C85FF453-1B8E-40F9-8F39-7BD49834E0ED}" name="Price" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{25616650-F24D-4D72-83F0-33E06FAD29F2}" name="스텟 타입" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -571,26 +686,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477CBF55-05E2-4044-A2FE-3395B47E08EF}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="3"/>
+    <col min="1" max="1" width="8.75" style="3"/>
     <col min="2" max="2" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.09765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -642,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>18</v>
@@ -660,7 +775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -695,7 +810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -729,6 +844,255 @@
       <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FDC6C4-D162-4040-A925-FEA00236F68A}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5001</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5001</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5001</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5001</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5001</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5001</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/ExcelDatas/CharacterData.xlsx
+++ b/Assets/ExcelDatas/CharacterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7073EDF-214C-4C4E-A182-A1FB75F92CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B0A784-12C6-43FA-A3EC-6E61C7A421C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30735" yWindow="2010" windowWidth="24495" windowHeight="11385" activeTab="1" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
@@ -377,10 +377,10 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{ED4D281F-14C7-428C-95E7-5FA8F5994F81}" name="Name" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{7601506F-6BF0-47B4-AA04-BFFEDDDBECFA}" name="ID" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{43F40881-49B4-4463-9A12-14BD4390D989}" name="UpgradeStatType" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{B780DC8A-64ED-4485-B07C-5DCADC47B51D}" name="Value" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E23E6074-77E5-4361-AA84-DF1569D359D8}" name="Level" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{C85FF453-1B8E-40F9-8F39-7BD49834E0ED}" name="Price" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{43F40881-49B4-4463-9A12-14BD4390D989}" name="UpgradeStatType" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B780DC8A-64ED-4485-B07C-5DCADC47B51D}" name="Value" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{E23E6074-77E5-4361-AA84-DF1569D359D8}" name="Level" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{C85FF453-1B8E-40F9-8F39-7BD49834E0ED}" name="Price" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{25616650-F24D-4D72-83F0-33E06FAD29F2}" name="스텟 타입" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -860,7 +860,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -969,7 +969,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="3">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
@@ -992,7 +992,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="3">
-        <v>5001</v>
+        <v>5003</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
@@ -1013,7 +1013,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="3">
-        <v>5001</v>
+        <v>5004</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -1034,7 +1034,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="3">
-        <v>5001</v>
+        <v>5005</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
@@ -1057,7 +1057,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="3">
-        <v>5001</v>
+        <v>5006</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>31</v>
@@ -1078,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>5001</v>
+        <v>5007</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>31</v>

--- a/Assets/ExcelDatas/CharacterData.xlsx
+++ b/Assets/ExcelDatas/CharacterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B0A784-12C6-43FA-A3EC-6E61C7A421C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFED954-FDB2-495A-860F-92FED75B2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30735" yWindow="2010" windowWidth="24495" windowHeight="11385" activeTab="1" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="1" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterTable" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
   <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,7 +153,78 @@
     <t>DefencePoint</t>
   </si>
   <si>
-    <t>이넘 정해주세요..</t>
+    <t>공격속도 업그레이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 업그레이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 확률 업그레이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 업그레이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefencePoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeedPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeedPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalPercentPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Spum_Icon18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon/Spum_Icon28</t>
+  </si>
+  <si>
+    <t>Icon/Spum_Icon22</t>
+  </si>
+  <si>
+    <t>Icon/Spum_Icon31</t>
+  </si>
+  <si>
+    <t>Icon/Spum_Icon23</t>
+  </si>
+  <si>
+    <t>Icon/Spum_Icon24</t>
+  </si>
+  <si>
+    <t>HealthPoint = 체력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalPercentPoint = 크리티컬 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeedPoint = 이동속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeedPoint = 공격 속도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +308,10 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -352,36 +426,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}" name="표2" displayName="표2" ref="A3:K4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}" name="표2" displayName="표2" ref="A3:K4" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A3:K4" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{37C7C105-E27E-49AA-98C8-F599797BFDFA}" name="Name" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{117AF7E1-21A6-4426-8745-5287AFCE2ACC}" name="ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{109E1E6E-4C89-4DF6-881B-3A81934D9BB5}" name="AttackDamage" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{BBCC0282-B5A9-4D25-8B29-EB6EDE9C1EC4}" name="AttackSpeed" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{93962B0C-5FE3-4107-9B9F-D9CF519304A9}" name="Defence" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{4D166232-357D-4EBE-86BB-48D7FF326B9F}" name="MoveSpeed" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{35089020-614D-4902-B564-E6925801465A}" name="CriticalPercent" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{F737CEF5-B367-4AFD-90DA-25D3DBCC841A}" name="CriticalDamage" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{DC4E3845-0ED0-4615-BB45-F00B344AD551}" name="HP" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{98302034-D0BF-4704-9CB5-915E7AB127AF}" name="MaxLV" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{37C7C105-E27E-49AA-98C8-F599797BFDFA}" name="Name" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{117AF7E1-21A6-4426-8745-5287AFCE2ACC}" name="ID" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{109E1E6E-4C89-4DF6-881B-3A81934D9BB5}" name="AttackDamage" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{BBCC0282-B5A9-4D25-8B29-EB6EDE9C1EC4}" name="AttackSpeed" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{93962B0C-5FE3-4107-9B9F-D9CF519304A9}" name="Defence" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{4D166232-357D-4EBE-86BB-48D7FF326B9F}" name="MoveSpeed" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{35089020-614D-4902-B564-E6925801465A}" name="CriticalPercent" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{F737CEF5-B367-4AFD-90DA-25D3DBCC841A}" name="CriticalDamage" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{DC4E3845-0ED0-4615-BB45-F00B344AD551}" name="HP" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{98302034-D0BF-4704-9CB5-915E7AB127AF}" name="MaxLV" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B784074-12A8-48A2-A822-F7B75B54D2CA}" name="표2_2" displayName="표2_2" ref="A3:G10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A3:G10" xr:uid="{9B784074-12A8-48A2-A822-F7B75B54D2CA}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{ED4D281F-14C7-428C-95E7-5FA8F5994F81}" name="Name" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{7601506F-6BF0-47B4-AA04-BFFEDDDBECFA}" name="ID" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{43F40881-49B4-4463-9A12-14BD4390D989}" name="UpgradeStatType" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B780DC8A-64ED-4485-B07C-5DCADC47B51D}" name="Value" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{E23E6074-77E5-4361-AA84-DF1569D359D8}" name="Level" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{C85FF453-1B8E-40F9-8F39-7BD49834E0ED}" name="Price" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{25616650-F24D-4D72-83F0-33E06FAD29F2}" name="스텟 타입" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B784074-12A8-48A2-A822-F7B75B54D2CA}" name="표2_2" displayName="표2_2" ref="A3:H33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A3:H33" xr:uid="{9B784074-12A8-48A2-A822-F7B75B54D2CA}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{ED4D281F-14C7-428C-95E7-5FA8F5994F81}" name="Name" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{7601506F-6BF0-47B4-AA04-BFFEDDDBECFA}" name="ID" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{43F40881-49B4-4463-9A12-14BD4390D989}" name="UpgradeStatType" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B780DC8A-64ED-4485-B07C-5DCADC47B51D}" name="Value" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E23E6074-77E5-4361-AA84-DF1569D359D8}" name="Level" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{C85FF453-1B8E-40F9-8F39-7BD49834E0ED}" name="Price" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4361F13B-ED3A-4935-8C60-E53729A5D1D3}" name="Icon" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{25616650-F24D-4D72-83F0-33E06FAD29F2}" name="스텟 타입" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -687,25 +762,25 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="3"/>
+    <col min="1" max="1" width="8.69921875" style="3"/>
     <col min="2" max="2" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.69921875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.09765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -775,7 +850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -810,7 +885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -857,24 +932,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FDC6C4-D162-4040-A925-FEA00236F68A}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.69921875" customWidth="1"/>
+    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -894,10 +970,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,9 +995,12 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -938,10 +1020,13 @@
         <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -958,13 +1043,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -981,13 +1069,14 @@
         <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1004,11 +1093,14 @@
         <v>3</v>
       </c>
       <c r="F6" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1025,34 +1117,38 @@
         <v>4</v>
       </c>
       <c r="F7" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3">
         <v>5005</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3">
         <v>10</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1066,14 +1162,19 @@
         <v>10</v>
       </c>
       <c r="E9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1087,12 +1188,575 @@
         <v>10</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5008</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5009</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5010</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5011</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5012</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5014</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5015</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5016</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5017</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5018</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5019</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5020</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5021</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="3">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5023</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5024</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5025</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5026</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="3">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5027</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5028</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="3">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5029</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="3">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5030</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="3">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/ExcelDatas/CharacterData.xlsx
+++ b/Assets/ExcelDatas/CharacterData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFED954-FDB2-495A-860F-92FED75B2847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4997E9A-F9D3-4CC1-B2B7-2FD8D66F8487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="1" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="2" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterTable" sheetId="1" r:id="rId1"/>
     <sheet name="CharacterStatShop" sheetId="2" r:id="rId2"/>
+    <sheet name="CharacterStatShop백업용" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="52">
   <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -308,7 +309,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="32">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -381,18 +382,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -412,6 +401,62 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -426,37 +471,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}" name="표2" displayName="표2" ref="A3:K4" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}" name="표2" displayName="표2" ref="A3:K4" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A3:K4" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{37C7C105-E27E-49AA-98C8-F599797BFDFA}" name="Name" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{117AF7E1-21A6-4426-8745-5287AFCE2ACC}" name="ID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{109E1E6E-4C89-4DF6-881B-3A81934D9BB5}" name="AttackDamage" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{BBCC0282-B5A9-4D25-8B29-EB6EDE9C1EC4}" name="AttackSpeed" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{93962B0C-5FE3-4107-9B9F-D9CF519304A9}" name="Defence" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{4D166232-357D-4EBE-86BB-48D7FF326B9F}" name="MoveSpeed" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{35089020-614D-4902-B564-E6925801465A}" name="CriticalPercent" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{F737CEF5-B367-4AFD-90DA-25D3DBCC841A}" name="CriticalDamage" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{DC4E3845-0ED0-4615-BB45-F00B344AD551}" name="HP" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{98302034-D0BF-4704-9CB5-915E7AB127AF}" name="MaxLV" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{37C7C105-E27E-49AA-98C8-F599797BFDFA}" name="Name" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{117AF7E1-21A6-4426-8745-5287AFCE2ACC}" name="ID" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{109E1E6E-4C89-4DF6-881B-3A81934D9BB5}" name="AttackDamage" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{BBCC0282-B5A9-4D25-8B29-EB6EDE9C1EC4}" name="AttackSpeed" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{93962B0C-5FE3-4107-9B9F-D9CF519304A9}" name="Defence" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{4D166232-357D-4EBE-86BB-48D7FF326B9F}" name="MoveSpeed" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{35089020-614D-4902-B564-E6925801465A}" name="CriticalPercent" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{F737CEF5-B367-4AFD-90DA-25D3DBCC841A}" name="CriticalDamage" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{DC4E3845-0ED0-4615-BB45-F00B344AD551}" name="HP" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{98302034-D0BF-4704-9CB5-915E7AB127AF}" name="MaxLV" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B784074-12A8-48A2-A822-F7B75B54D2CA}" name="표2_2" displayName="표2_2" ref="A3:H33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B784074-12A8-48A2-A822-F7B75B54D2CA}" name="표2_2" displayName="표2_2" ref="A3:G33" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:G33" xr:uid="{9B784074-12A8-48A2-A822-F7B75B54D2CA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{ED4D281F-14C7-428C-95E7-5FA8F5994F81}" name="Name" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{7601506F-6BF0-47B4-AA04-BFFEDDDBECFA}" name="ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{43F40881-49B4-4463-9A12-14BD4390D989}" name="UpgradeStatType" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B780DC8A-64ED-4485-B07C-5DCADC47B51D}" name="Value" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{E23E6074-77E5-4361-AA84-DF1569D359D8}" name="Level" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{C85FF453-1B8E-40F9-8F39-7BD49834E0ED}" name="Price" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{25616650-F24D-4D72-83F0-33E06FAD29F2}" name="스텟 타입" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0AF9A5A0-6843-46CD-A915-C5D52174103A}" name="표2_24" displayName="표2_24" ref="A3:H33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A3:H33" xr:uid="{9B784074-12A8-48A2-A822-F7B75B54D2CA}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{ED4D281F-14C7-428C-95E7-5FA8F5994F81}" name="Name" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{7601506F-6BF0-47B4-AA04-BFFEDDDBECFA}" name="ID" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{43F40881-49B4-4463-9A12-14BD4390D989}" name="UpgradeStatType" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B780DC8A-64ED-4485-B07C-5DCADC47B51D}" name="Value" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E23E6074-77E5-4361-AA84-DF1569D359D8}" name="Level" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{C85FF453-1B8E-40F9-8F39-7BD49834E0ED}" name="Price" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{4361F13B-ED3A-4935-8C60-E53729A5D1D3}" name="Icon" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{25616650-F24D-4D72-83F0-33E06FAD29F2}" name="스텟 타입" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7180A89E-8521-4262-BD2F-F1FC615741A4}" name="Name" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{D798F646-A91B-403F-9753-7D7369EE1D0F}" name="ID" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0089ADB0-1307-4308-9C93-88F34EF434B0}" name="UpgradeStatType" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{99EEA814-3F26-41F5-BDE3-4A090A610155}" name="Value" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{2E745B4B-2987-4C56-A737-DDA55E5D632A}" name="Level" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{8C05A9D8-385B-4B79-BA13-F8D5C9B1FA93}" name="Price" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{441B1EDD-D2CD-40A3-A766-9477683574DC}" name="Icon" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DD9ADF8E-E901-4680-8125-2EC077D934FB}" name="스텟 타입" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -762,7 +823,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -932,10 +993,748 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FDC6C4-D162-4040-A925-FEA00236F68A}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D4:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5001</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5002</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5003</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5004</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5005</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5006</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5007</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5008</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5009</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5010</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5011</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5012</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5013</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5014</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5015</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5016</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5017</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5018</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5019</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5020</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5021</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5022</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5023</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5024</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5025</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5026</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="3">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5027</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="3">
+        <v>100</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5028</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="3">
+        <v>100</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5029</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5030</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4372D6F-09CC-4F7E-8173-2C9A06025B2F}">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1159,7 +1958,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1185,7 +1984,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
@@ -1209,7 +2008,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -1233,7 +2032,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
@@ -1257,7 +2056,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -1281,7 +2080,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1307,7 +2106,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
@@ -1331,7 +2130,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -1355,7 +2154,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
@@ -1379,7 +2178,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
@@ -1525,7 +2324,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1551,7 +2350,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
@@ -1575,7 +2374,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -1599,7 +2398,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
         <v>4</v>
@@ -1623,7 +2422,7 @@
         <v>39</v>
       </c>
       <c r="D28" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28" s="3">
         <v>5</v>
@@ -1647,7 +2446,7 @@
         <v>40</v>
       </c>
       <c r="D29" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -1673,7 +2472,7 @@
         <v>40</v>
       </c>
       <c r="D30" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -1697,7 +2496,7 @@
         <v>40</v>
       </c>
       <c r="D31" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E31" s="3">
         <v>3</v>
@@ -1721,7 +2520,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>4</v>
@@ -1745,7 +2544,7 @@
         <v>40</v>
       </c>
       <c r="D33" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>5</v>

--- a/Assets/ExcelDatas/CharacterData.xlsx
+++ b/Assets/ExcelDatas/CharacterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4574BB9D-04A6-4AB8-ADB5-01DBC3934ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44548D9D-7D0B-469C-84BF-FC6FF7DC8274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="3015" windowWidth="24495" windowHeight="11385" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPRegen</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +139,21 @@
       <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,11 +197,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -253,20 +294,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}" name="표2" displayName="표2" ref="A3:K4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A3:K4" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{37C7C105-E27E-49AA-98C8-F599797BFDFA}" name="Name" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{117AF7E1-21A6-4426-8745-5287AFCE2ACC}" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{109E1E6E-4C89-4DF6-881B-3A81934D9BB5}" name="AttackDamage" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{BBCC0282-B5A9-4D25-8B29-EB6EDE9C1EC4}" name="AttackSpeed" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{93962B0C-5FE3-4107-9B9F-D9CF519304A9}" name="Defence" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{4D166232-357D-4EBE-86BB-48D7FF326B9F}" name="MoveSpeed" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{35089020-614D-4902-B564-E6925801465A}" name="CriticalPercent" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{F737CEF5-B367-4AFD-90DA-25D3DBCC841A}" name="CriticalDamage" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}" name="표2" displayName="표2" ref="A3:L4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A3:L4" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{37C7C105-E27E-49AA-98C8-F599797BFDFA}" name="Name" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{117AF7E1-21A6-4426-8745-5287AFCE2ACC}" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{109E1E6E-4C89-4DF6-881B-3A81934D9BB5}" name="AttackDamage" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BBCC0282-B5A9-4D25-8B29-EB6EDE9C1EC4}" name="AttackSpeed" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{93962B0C-5FE3-4107-9B9F-D9CF519304A9}" name="Defence" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{4D166232-357D-4EBE-86BB-48D7FF326B9F}" name="MoveSpeed" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{35089020-614D-4902-B564-E6925801465A}" name="CriticalPercent" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F737CEF5-B367-4AFD-90DA-25D3DBCC841A}" name="CriticalDamage" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{DC4E3845-0ED0-4615-BB45-F00B344AD551}" name="HP" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{941F3968-7E26-48D7-A321-BC4141FB3127}" name="HPRegen" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{98302034-D0BF-4704-9CB5-915E7AB127AF}" name="MaxLV" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -569,28 +611,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477CBF55-05E2-4044-A2FE-3395B47E08EF}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="3"/>
+    <col min="1" max="1" width="8.69921875" style="3"/>
     <col min="2" max="2" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.69921875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.09765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,8 +667,11 @@
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -633,13 +679,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
@@ -651,16 +697,19 @@
         <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -688,14 +737,17 @@
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -723,10 +775,13 @@
       <c r="I4" s="3">
         <v>1000</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>30</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Assets/ExcelDatas/CharacterData.xlsx
+++ b/Assets/ExcelDatas/CharacterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44548D9D-7D0B-469C-84BF-FC6FF7DC8274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EAF6FB-8F5F-469B-BD96-A74E2E0007D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20595" windowHeight="13260" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterTable" sheetId="1" r:id="rId1"/>
@@ -209,6 +209,12 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -222,12 +228,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -305,10 +305,10 @@
     <tableColumn id="5" xr3:uid="{4D166232-357D-4EBE-86BB-48D7FF326B9F}" name="MoveSpeed" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{35089020-614D-4902-B564-E6925801465A}" name="CriticalPercent" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{F737CEF5-B367-4AFD-90DA-25D3DBCC841A}" name="CriticalDamage" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{DC4E3845-0ED0-4615-BB45-F00B344AD551}" name="HP" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{941F3968-7E26-48D7-A321-BC4141FB3127}" name="HPRegen" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{DC4E3845-0ED0-4615-BB45-F00B344AD551}" name="HP" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{941F3968-7E26-48D7-A321-BC4141FB3127}" name="HPRegen" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{98302034-D0BF-4704-9CB5-915E7AB127AF}" name="MaxLV" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,27 +613,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477CBF55-05E2-4044-A2FE-3395B47E08EF}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="3"/>
+    <col min="1" max="1" width="8.75" style="3"/>
     <col min="2" max="2" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.09765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -709,7 +709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -747,7 +747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
